--- a/Cubebot/Pinout.xlsx
+++ b/Cubebot/Pinout.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rene\Documents\CSE462\Cubebot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ravanee\Documents\CSE462\github\CubeBot\Cubebot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
